--- a/static/excel/检查专家模板.xlsx
+++ b/static/excel/检查专家模板.xlsx
@@ -110,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -179,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,38 +189,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -499,125 +490,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="44.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="9" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="10" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.625" customWidth="1"/>
-    <col min="15" max="15" width="24" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.625" customWidth="1"/>
-    <col min="17" max="17" width="14.5" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="24.125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="24" style="7" customWidth="1"/>
+    <col min="16" max="16" width="15.625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="10" customWidth="1"/>
+    <col min="18" max="18" width="15" style="10" customWidth="1"/>
+    <col min="19" max="19" width="17.25" style="10" customWidth="1"/>
+    <col min="20" max="20" width="9" style="10"/>
     <col min="21" max="21" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F20" s="5"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/static/excel/检查专家模板.xlsx
+++ b/static/excel/检查专家模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linh\Desktop\双随机模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dingdingDownload\双随机模板(2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>状态：启用/停用</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,12 +103,74 @@
   <si>
     <t>基本简历</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共党员</t>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授级高级工程师</t>
+  </si>
+  <si>
+    <t>交通运输</t>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>212</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1沙发上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生栋覆屋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>哦水电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啥地方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -490,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -586,6 +648,136 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="7">
+        <v>323</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1212</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="7">
+        <v>111</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="7">
+        <v>323</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1212</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="7">
+        <v>111</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">

--- a/static/excel/检查专家模板.xlsx
+++ b/static/excel/检查专家模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dingdingDownload\双随机模板(2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhangminhui\行政检查\zhzf\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>状态：启用/停用</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,68 +103,6 @@
   <si>
     <t>基本简历</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中共党员</t>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教授级高级工程师</t>
-  </si>
-  <si>
-    <t>交通运输</t>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>212</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>222</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>333</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1沙发上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生栋覆屋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用</t>
-  </si>
-  <si>
-    <t>哦水电</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>啥地方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
   </si>
 </sst>
 </file>
@@ -555,7 +493,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -648,135 +586,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="7">
-        <v>323</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="7">
-        <v>1212</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="7">
-        <v>111</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>34</v>
-      </c>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U2" s="10"/>
     </row>
-    <row r="3" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="7">
-        <v>323</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1212</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="7">
-        <v>111</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>34</v>
-      </c>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U3" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/static/excel/检查专家模板.xlsx
+++ b/static/excel/检查专家模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhangminhui\行政检查\zhzf\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -490,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -586,12 +586,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U2" s="10"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U3" s="10"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
